--- a/New OAWL Calculator v1.1.xlsx
+++ b/New OAWL Calculator v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Centura Physics\Physics Team\Anton\My Presentations\OAWL Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0A078-D85F-4BAC-A4FB-58FE388AA25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5AFAFD-01AA-4B6B-AF6A-D4CEF8A8DF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="555" windowWidth="25545" windowHeight="16845" tabRatio="517" xr2:uid="{5D793858-2E08-460B-A8FF-38326940BF89}"/>
+    <workbookView xWindow="3615" yWindow="570" windowWidth="23865" windowHeight="16320" tabRatio="517" xr2:uid="{5D793858-2E08-460B-A8FF-38326940BF89}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Step 1.b  Choose which target is at iso, and which to use for OAWL target.</t>
   </si>
   <si>
-    <t>Step 1.a  Enter aboslute coords of targets</t>
-  </si>
-  <si>
     <t>Couch Angle</t>
   </si>
   <si>
@@ -810,11 +807,29 @@
     </r>
   </si>
   <si>
-    <t>See Details tab for step by step coordiante transformations.</t>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
+    <t>MLC Type</t>
+  </si>
+  <si>
+    <t>M120</t>
+  </si>
+  <si>
+    <t>HD120</t>
+  </si>
+  <si>
+    <t>Gap Size (cm)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New Collimator angle, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ</t>
     </r>
     <r>
       <rPr>
@@ -823,9 +838,8 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gap</t>
+      </rPr>
+      <t>c,final</t>
     </r>
     <r>
       <rPr>
@@ -833,35 +847,139 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  = </t>
-    </r>
-  </si>
-  <si>
-    <t>MLC Type</t>
-  </si>
-  <si>
-    <t>M120</t>
-  </si>
-  <si>
-    <t>HD120</t>
-  </si>
-  <si>
-    <t>Gap Size (cm)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">New Collimator angle, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>θ</t>
+      </rPr>
+      <t xml:space="preserve">  =</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 3.  Coordinate Transformations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Step 4. New Collimator angle</t>
+  </si>
+  <si>
+    <t>eq. 13)</t>
+  </si>
+  <si>
+    <t>eq. 12)</t>
+  </si>
+  <si>
+    <t>eq. 14)</t>
+  </si>
+  <si>
+    <t>eq. 15)</t>
+  </si>
+  <si>
+    <t>H  =</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>For…</t>
+  </si>
+  <si>
+    <t>or for…</t>
+  </si>
+  <si>
+    <t>Y Coord.</t>
+  </si>
+  <si>
+    <t>Gap Between Leaves…</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centered at X = </t>
+  </si>
+  <si>
+    <t>Centered between MLC leaves</t>
+  </si>
+  <si>
+    <t>Note that the Collimator angle will ultimately be slightly different than desired, as we use a collimator angle correction to align MLC leaf gaps.</t>
+  </si>
+  <si>
+    <t>Step 2.  Enter target coordinates (up to 5 targets).</t>
+  </si>
+  <si>
+    <t>Step 3.  Enter desired Couch, Gantry, and initial Collimator angles</t>
+  </si>
+  <si>
+    <t>Step 4.  Calculate coordinate transformations, to obtain the exact position of target in beam's eye view.</t>
+  </si>
+  <si>
+    <t>Increasing couch values represent a…</t>
+  </si>
+  <si>
+    <t>Gantry Angle:</t>
+  </si>
+  <si>
+    <t>Couch Angle:</t>
+  </si>
+  <si>
+    <t>Collimator Angle:</t>
+  </si>
+  <si>
+    <t>&lt;select&gt;</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>rotation.</t>
+  </si>
+  <si>
+    <t>Increasing coll. values represent a…</t>
+  </si>
+  <si>
+    <t>Step 1.  Specify sign of rotations.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Note that the BEV coordinate system is separate from the TPS system, and is inherently right-handed with the third axis pointing towards the viewer.  The signs for the couch and collimator rotations will be ultimately determined by the BEV coordinate system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( Coord. System = BEV )</t>
+  </si>
+  <si>
+    <t>( Coord. System = TPS )</t>
+  </si>
+  <si>
+    <t>( Coord. System = BEV )</t>
+  </si>
+  <si>
+    <t>Field Parameters calculator</t>
+  </si>
+  <si>
+    <t>Specify whether angular rotations are positive or negative for your Treatment Planning System.</t>
+  </si>
+  <si>
+    <t>This can be determined empirically, or by examining the handedness of the coordinate systems.</t>
+  </si>
+  <si>
+    <t>Increasing gantry values represent a…</t>
+  </si>
+  <si>
+    <t>Step 1.a  Enter absolute coords of targets</t>
+  </si>
+  <si>
+    <t>See Details tab for step by step coordinate transformations.</t>
+  </si>
+  <si>
+    <t>Step 5.  Determine closest leaf gaps, and calculate needed collimator angle correction to align that leaf gap with target.</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
     </r>
     <r>
       <rPr>
@@ -870,8 +988,9 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>c,final</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
     </r>
     <r>
       <rPr>
@@ -879,39 +998,109 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  =</t>
     </r>
   </si>
   <si>
-    <t>Step 3.  Coordinate Transformations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Step 4. New Collimator angle</t>
-  </si>
-  <si>
-    <t>eq. 13)</t>
-  </si>
-  <si>
-    <t>eq. 12)</t>
-  </si>
-  <si>
-    <t>eq. 14)</t>
-  </si>
-  <si>
-    <t>eq. 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBEV,final  = </t>
-  </si>
-  <si>
-    <t>H  =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YBEV,final  = </t>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEV,final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEV,final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  = Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  </t>
+    </r>
   </si>
   <si>
     <r>
@@ -919,6 +1108,7 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -944,6 +1134,7 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -962,105 +1153,6 @@
       </rPr>
       <t xml:space="preserve"> = </t>
     </r>
-  </si>
-  <si>
-    <t>For Ygap  =</t>
-  </si>
-  <si>
-    <t>deg</t>
-  </si>
-  <si>
-    <t>For…</t>
-  </si>
-  <si>
-    <t>or for…</t>
-  </si>
-  <si>
-    <t>Y Coord.</t>
-  </si>
-  <si>
-    <t>Gap Between Leaves…</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centered at X = </t>
-  </si>
-  <si>
-    <t>Centered between MLC leaves</t>
-  </si>
-  <si>
-    <t>Note that the Collimator angle will ultimately be slightly different than desired, as we use a collimator angle correction to align MLC leaf gaps.</t>
-  </si>
-  <si>
-    <t>Step 2.  Enter target coordinates (up to 5 targets).</t>
-  </si>
-  <si>
-    <t>Step 3.  Enter desired Couch, Gantry, and initial Collimator angles</t>
-  </si>
-  <si>
-    <t>Step 4.  Calculate coordinate transformations, to obtain the exact position of target in beam's eye view.</t>
-  </si>
-  <si>
-    <t>Step 5.  Determine closest leaf gaps, and calculate neede collimator angle correction to align that leaf gap with target.</t>
-  </si>
-  <si>
-    <t>Increasing couch values represent a…</t>
-  </si>
-  <si>
-    <t>Gantry Angle:</t>
-  </si>
-  <si>
-    <t>Couch Angle:</t>
-  </si>
-  <si>
-    <t>Collimator Angle:</t>
-  </si>
-  <si>
-    <t>Increasing ganrty values represent a…</t>
-  </si>
-  <si>
-    <t>&lt;select&gt;</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>rotation.</t>
-  </si>
-  <si>
-    <t>Increasing coll. values represent a…</t>
-  </si>
-  <si>
-    <t>Specifiy whether angular rotations are positive or negative for your Treatment Planning System.</t>
-  </si>
-  <si>
-    <t>Step 1.  Specify sign of rotations.</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>This can be determined emperically, or by examining the handedness of the coordinate systems.</t>
-  </si>
-  <si>
-    <t>Note that the BEV coordinate system is separate from the TPS system, and is inherently right-handed with the third axis pointing towards the viewer.  The signs for the couch and collimator rotations will be ultimately determined by the BEV coordinate system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( Coord. System = BEV )</t>
-  </si>
-  <si>
-    <t>( Coord. System = TPS )</t>
-  </si>
-  <si>
-    <t>( Coord. System = BEV )</t>
-  </si>
-  <si>
-    <t>Field Parameters calculator</t>
   </si>
 </sst>
 </file>
@@ -1606,6 +1698,72 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,18 +1773,6 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1635,60 +1781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3097,13 +3189,13 @@
     </row>
     <row r="2" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="50"/>
@@ -3121,339 +3213,339 @@
     <row r="5" spans="1:69" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="84"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="88"/>
-      <c r="BC8" s="88"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="88"/>
-      <c r="BF8" s="88"/>
-      <c r="BG8" s="88"/>
-      <c r="BH8" s="88"/>
-      <c r="BI8" s="88"/>
-      <c r="BJ8" s="88"/>
-      <c r="BK8" s="88"/>
-      <c r="BL8" s="88"/>
-      <c r="BM8" s="88"/>
-      <c r="BN8" s="88"/>
-      <c r="BO8" s="88"/>
-      <c r="BP8" s="88"/>
-      <c r="BQ8" s="88"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" s="70" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="72"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="76"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="76"/>
+      <c r="BB8" s="76"/>
+      <c r="BC8" s="76"/>
+      <c r="BD8" s="76"/>
+      <c r="BE8" s="76"/>
+      <c r="BF8" s="76"/>
+      <c r="BG8" s="76"/>
+      <c r="BH8" s="76"/>
+      <c r="BI8" s="76"/>
+      <c r="BJ8" s="76"/>
+      <c r="BK8" s="76"/>
+      <c r="BL8" s="76"/>
+      <c r="BM8" s="76"/>
+      <c r="BN8" s="76"/>
+      <c r="BO8" s="76"/>
+      <c r="BP8" s="76"/>
+      <c r="BQ8" s="76"/>
     </row>
     <row r="9" spans="1:69" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:69" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" s="89" cm="1">
+      <c r="C10" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="77" cm="1">
         <f t="array" ref="P10">INDEX($V$11:$V$12, MATCH(K10,$U$11:$U$12,0), 0)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
-      <c r="BB10" s="90"/>
-      <c r="BC10" s="90"/>
-      <c r="BD10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="90"/>
-      <c r="BK10" s="90"/>
-      <c r="BL10" s="90"/>
-      <c r="BM10" s="90"/>
-      <c r="BN10" s="90"/>
-      <c r="BO10" s="90"/>
-      <c r="BP10" s="90"/>
-      <c r="BQ10" s="90"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="78"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="78"/>
+      <c r="BI10" s="78"/>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="78"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="78"/>
+      <c r="BN10" s="78"/>
+      <c r="BO10" s="78"/>
+      <c r="BP10" s="78"/>
+      <c r="BQ10" s="78"/>
     </row>
     <row r="11" spans="1:69" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="79" t="s">
+      <c r="C11" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" s="89" cm="1">
+      <c r="F11" s="73"/>
+      <c r="G11" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="77" cm="1">
         <f t="array" ref="P11">INDEX($V$11:$V$12, MATCH(K11,$U$11:$U$12,0), 0)</f>
         <v>-1</v>
       </c>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="V11" s="90">
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" s="78">
         <v>1</v>
       </c>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="90"/>
-      <c r="BN11" s="90"/>
-      <c r="BO11" s="90"/>
-      <c r="BP11" s="90"/>
-      <c r="BQ11" s="90"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="78"/>
+      <c r="BA11" s="78"/>
+      <c r="BB11" s="78"/>
+      <c r="BC11" s="78"/>
+      <c r="BD11" s="78"/>
+      <c r="BE11" s="78"/>
+      <c r="BF11" s="78"/>
+      <c r="BG11" s="78"/>
+      <c r="BH11" s="78"/>
+      <c r="BI11" s="78"/>
+      <c r="BJ11" s="78"/>
+      <c r="BK11" s="78"/>
+      <c r="BL11" s="78"/>
+      <c r="BM11" s="78"/>
+      <c r="BN11" s="78"/>
+      <c r="BO11" s="78"/>
+      <c r="BP11" s="78"/>
+      <c r="BQ11" s="78"/>
     </row>
     <row r="12" spans="1:69" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="89" cm="1">
+      <c r="C12" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="77" cm="1">
         <f t="array" ref="P12">INDEX($V$11:$V$12, MATCH(K12,$U$11:$U$12,0), 0)</f>
         <v>-1</v>
       </c>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="V12" s="90">
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" s="78">
         <v>-1</v>
       </c>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="90"/>
-      <c r="BC12" s="90"/>
-      <c r="BD12" s="90"/>
-      <c r="BE12" s="90"/>
-      <c r="BF12" s="90"/>
-      <c r="BG12" s="90"/>
-      <c r="BH12" s="90"/>
-      <c r="BI12" s="90"/>
-      <c r="BJ12" s="90"/>
-      <c r="BK12" s="90"/>
-      <c r="BL12" s="90"/>
-      <c r="BM12" s="90"/>
-      <c r="BN12" s="90"/>
-      <c r="BO12" s="90"/>
-      <c r="BP12" s="90"/>
-      <c r="BQ12" s="90"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="78"/>
+      <c r="AZ12" s="78"/>
+      <c r="BA12" s="78"/>
+      <c r="BB12" s="78"/>
+      <c r="BC12" s="78"/>
+      <c r="BD12" s="78"/>
+      <c r="BE12" s="78"/>
+      <c r="BF12" s="78"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="78"/>
+      <c r="BI12" s="78"/>
+      <c r="BJ12" s="78"/>
+      <c r="BK12" s="78"/>
+      <c r="BL12" s="78"/>
+      <c r="BM12" s="78"/>
+      <c r="BN12" s="78"/>
+      <c r="BO12" s="78"/>
+      <c r="BP12" s="78"/>
+      <c r="BQ12" s="78"/>
     </row>
     <row r="14" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -3471,30 +3563,30 @@
     <row r="16" spans="1:69" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
     </row>
     <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
       <c r="H19" s="17" t="s">
         <v>7</v>
       </c>
@@ -3565,11 +3657,11 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -3633,7 +3725,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="50"/>
@@ -3653,51 +3745,51 @@
       <c r="C29" s="20"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="C30" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
     </row>
     <row r="32" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C33" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="24">
         <v>0</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="24">
         <v>0</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="23"/>
       <c r="M33" s="24">
@@ -3707,7 +3799,7 @@
     <row r="35" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36" s="49" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="50"/>
@@ -3725,20 +3817,20 @@
     <row r="37" spans="2:33" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C38" s="44" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="2:33" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:33" ht="18" x14ac:dyDescent="0.25">
       <c r="C40" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="55">
         <f>Details!Q29</f>
         <v>5.7894736842105257</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" s="55">
         <f>Details!Q30</f>
@@ -3749,7 +3841,7 @@
     <row r="42" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B43" s="49" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C43" s="49"/>
       <c r="D43" s="50"/>
@@ -3764,7 +3856,7 @@
       <c r="M43" s="50"/>
       <c r="N43" s="50"/>
       <c r="U43" s="51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V43" s="51">
         <v>0.5</v>
@@ -3776,22 +3868,22 @@
         <v>1</v>
       </c>
       <c r="AA43" s="51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AB43" s="62" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AC43" s="61"/>
       <c r="AE43" s="51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AF43" s="51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="U44" s="51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V44" s="51">
         <v>0.25</v>
@@ -3824,32 +3916,32 @@
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C45" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F45" s="61">
         <f>MATCH(E45,$U$43:$U$44,0)</f>
         <v>1</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H45" s="23"/>
       <c r="I45" s="56" cm="1">
         <f t="array" ref="I45">IF(OR(G40&lt;-INDEX(W43:W44,F45), G40&gt;INDEX(W43:W44,F45)), INDEX(X43:X44,F45), INDEX($V$43:$V$44,F45))</f>
         <v>0.5</v>
       </c>
-      <c r="J45" s="74" t="str" cm="1">
+      <c r="J45" s="81" t="str" cm="1">
         <f t="array" ref="J45">IF(OR(G40&lt;-INDEX(W43:W44,F45), G40&gt;INDEX(W43:W44,F45)), "Note: The calculated field falls beyond small MLC leaves, so larger leaf gap size is used.", "")</f>
         <v/>
       </c>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
       <c r="AA45" s="61">
         <v>-18</v>
       </c>
@@ -3871,11 +3963,11 @@
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
       <c r="AA46" s="61">
         <v>-17</v>
       </c>
@@ -3919,10 +4011,10 @@
     </row>
     <row r="48" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="C48" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E48" s="55">
         <f>FLOOR($G$40/$I$45, 1) * $I$45</f>
@@ -3930,14 +4022,14 @@
       </c>
       <c r="F48" s="52"/>
       <c r="G48" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="66">
+        <v>53</v>
+      </c>
+      <c r="J48" s="82">
         <f>Details!T44</f>
         <v>1.5513466609989948</v>
       </c>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="84"/>
       <c r="AA48" s="61">
         <v>-15</v>
       </c>
@@ -3961,14 +4053,14 @@
     <row r="49" spans="3:33" x14ac:dyDescent="0.25">
       <c r="F49" s="53"/>
       <c r="G49" s="47" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J49" s="57">
         <f>VLOOKUP(-E48, CHOOSE(F45,$AA$44:$AC$102,AE44:AG102), 2)</f>
         <v>36</v>
       </c>
       <c r="K49" s="58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L49" s="59">
         <f>VLOOKUP(-E48-I45, CHOOSE(F45,$AA$44:$AC$102,AE44:AG102), 2)</f>
@@ -3996,14 +4088,14 @@
     </row>
     <row r="50" spans="3:33" x14ac:dyDescent="0.25">
       <c r="G50" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="J50" s="63">
+        <v>68</v>
+      </c>
+      <c r="J50" s="85">
         <f>Details!T37</f>
         <v>5.8728446862777899</v>
       </c>
-      <c r="K50" s="64"/>
-      <c r="L50" s="65"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="87"/>
       <c r="AA50" s="61">
         <v>-13</v>
       </c>
@@ -4089,24 +4181,24 @@
     </row>
     <row r="54" spans="3:33" ht="18" x14ac:dyDescent="0.35">
       <c r="C54" s="47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E54" s="55">
         <f>FLOOR($G$40/$I$45, 1) * $I$45 + I45</f>
         <v>3.5</v>
       </c>
       <c r="G54" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="66">
+        <v>53</v>
+      </c>
+      <c r="J54" s="82">
         <f>Details!X44</f>
         <v>356.55581860206962</v>
       </c>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="84"/>
       <c r="AA54" s="61">
         <v>-9.5</v>
       </c>
@@ -4129,14 +4221,14 @@
     </row>
     <row r="55" spans="3:33" x14ac:dyDescent="0.25">
       <c r="G55" s="47" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J55" s="57">
         <f>VLOOKUP(-E54, CHOOSE(F45,$AA$44:$AC$102,AE44:AG102), 2)</f>
         <v>37</v>
       </c>
       <c r="K55" s="58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L55" s="59">
         <f>VLOOKUP(-E54-I45, CHOOSE(F45,$AA$44:$AC$102,AE44:AG102), 2)</f>
@@ -4164,14 +4256,14 @@
     </row>
     <row r="56" spans="3:33" x14ac:dyDescent="0.25">
       <c r="G56" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="J56" s="63">
+        <v>68</v>
+      </c>
+      <c r="J56" s="85">
         <f>Details!X37</f>
         <v>5.5893027033021987</v>
       </c>
-      <c r="K56" s="64"/>
-      <c r="L56" s="65"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="87"/>
       <c r="AA56" s="61">
         <v>-8.5</v>
       </c>
@@ -5160,18 +5252,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="C30:M31"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="H17:L18"/>
     <mergeCell ref="J45:N46"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="C30:M31"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H23:J23"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19:J20" xr:uid="{BAA0756A-0B38-4BAA-8DD5-5131E212CD8F}">
       <formula1>$C$21:$C$25</formula1>
     </dataValidation>
@@ -5191,7 +5283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DA5A9-3C21-4878-AD4A-1D035894EDEC}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5212,13 +5304,13 @@
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -5238,38 +5330,38 @@
       <c r="C7" s="20"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="35">
         <f>Main!H25</f>
         <v>5.5</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="35">
         <f>Main!I25</f>
         <v>-5</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="35">
         <f>Main!J25</f>
         <v>3</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T7" s="26"/>
     </row>
@@ -5293,7 +5385,7 @@
     <row r="9" spans="1:20" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -5313,7 +5405,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="35">
         <f>Main!E33 * sign_couch</f>
@@ -5321,14 +5413,14 @@
       </c>
       <c r="G10" s="27"/>
       <c r="J10" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="35">
         <f>Main!I33 * sign_gantry</f>
         <v>0</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="35">
         <f>Main!M33 * sign_coll</f>
@@ -5341,17 +5433,17 @@
     </row>
     <row r="12" spans="1:20" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:20" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="26"/>
       <c r="D13" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="34">
         <f>$F$7 * COS(RADIANS($F$10)) - $P$7 * SIN(RADIANS($F$10))</f>
@@ -5361,10 +5453,10 @@
     <row r="14" spans="1:20" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="34">
         <f>$K$7</f>
@@ -5374,10 +5466,10 @@
     <row r="15" spans="1:20" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="26"/>
       <c r="D15" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="34">
         <f>$F$7 * SIN(RADIANS($F$10)) + $P$7 * COS(RADIANS($F$10))</f>
@@ -5391,7 +5483,7 @@
     </row>
     <row r="17" spans="3:17" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="26"/>
       <c r="P17" s="37"/>
@@ -5399,7 +5491,7 @@
     <row r="18" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="26"/>
       <c r="D18" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="25"/>
       <c r="G18" s="25"/>
@@ -5411,7 +5503,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="P18" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="34">
         <f>$Q$13 * COS(RADIANS($K$10)) - $Q$14 * SIN(RADIANS($K$10))</f>
@@ -5421,7 +5513,7 @@
     <row r="19" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="26"/>
       <c r="D19" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="25"/>
       <c r="G19" s="25"/>
@@ -5433,7 +5525,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="P19" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="34">
         <f>$Q$13 * SIN(RADIANS($K$10)) + $Q$14 * COS(RADIANS($K$10))</f>
@@ -5443,7 +5535,7 @@
     <row r="20" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="26"/>
       <c r="D20" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="25"/>
       <c r="G20" s="25"/>
@@ -5455,7 +5547,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="P20" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="34">
         <f>$Q$15</f>
@@ -5469,7 +5561,7 @@
     </row>
     <row r="22" spans="3:17" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="26"/>
       <c r="P22" s="37"/>
@@ -5477,7 +5569,7 @@
     <row r="23" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="26"/>
       <c r="D23" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="25"/>
       <c r="G23" s="25"/>
@@ -5489,7 +5581,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="P23" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="34">
         <f>$Q$18 * COS(RADIANS($P$10)) - $Q$20 * SIN(RADIANS($P$10))</f>
@@ -5499,7 +5591,7 @@
     <row r="24" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="26"/>
       <c r="D24" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="25"/>
       <c r="G24" s="25"/>
@@ -5511,7 +5603,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
       <c r="P24" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="34">
         <f>$Q$19</f>
@@ -5521,7 +5613,7 @@
     <row r="25" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="25"/>
       <c r="G25" s="25"/>
@@ -5533,7 +5625,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="P25" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="34">
         <f>$Q$18 * SIN(RADIANS($P$10)) + $Q$20 * COS(RADIANS($P$10))</f>
@@ -5542,10 +5634,10 @@
     </row>
     <row r="29" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="38">
         <f>$Q$23 * (100 / (100+$Q$24))</f>
@@ -5554,10 +5646,10 @@
     </row>
     <row r="30" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P30" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="38">
         <f>$Q$25 * (100 / (100+$Q$24))</f>
@@ -5566,22 +5658,22 @@
     </row>
     <row r="33" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S34" s="29" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="T34" s="45">
         <f>Main!E48</f>
         <v>3</v>
       </c>
       <c r="W34" s="29" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="X34" s="45">
         <f>Main!E54</f>
@@ -5596,33 +5688,33 @@
     </row>
     <row r="36" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S36" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T36" s="45">
         <f>SQRT(Q29^2 + Q30^2)</f>
         <v>6.5947179400745615</v>
       </c>
       <c r="W36" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X36" s="45">
         <f>SQRT(Q29^2 + Q30^2)</f>
         <v>6.5947179400745615</v>
       </c>
     </row>
-    <row r="37" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="T37" s="45">
         <f>SIGN(Q29) * SQRT(T36^2 - T40^2)</f>
         <v>5.8728446862777899</v>
       </c>
       <c r="W37" s="29" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="X37" s="45">
         <f>SIGN(Q29) * SQRT(X36^2 - X40^2)</f>
@@ -5637,19 +5729,19 @@
       <c r="T39" s="48"/>
       <c r="X39" s="48"/>
     </row>
-    <row r="40" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="T40" s="45">
         <f>T34</f>
         <v>3</v>
       </c>
       <c r="W40" s="29" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="X40" s="45">
         <f>X34</f>
@@ -5660,19 +5752,19 @@
       <c r="T41" s="48"/>
       <c r="X41" s="48"/>
     </row>
-    <row r="42" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S42" s="46" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="T42" s="45">
         <f>DEGREES( ATAN(T40/T37) ) - DEGREES( ATAN(Q30/Q29) )</f>
         <v>-1.5513466609989948</v>
       </c>
       <c r="W42" s="46" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="X42" s="45">
         <f>DEGREES( ATAN(X40/X37) ) - DEGREES( ATAN(Q30/Q29) )</f>
@@ -5683,29 +5775,29 @@
       <c r="T43" s="48"/>
       <c r="X43" s="48"/>
     </row>
-    <row r="44" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S44" s="46" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="T44" s="1">
         <f>IF(P10 - T42&lt;0, P10 - T42 + 360, P10 - T42)</f>
         <v>1.5513466609989948</v>
       </c>
       <c r="U44" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W44" s="46" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="X44" s="1">
         <f>IF(P10 - X42&lt;0, P10 - X42 + 360, P10 - X42)</f>
         <v>356.55581860206962</v>
       </c>
       <c r="Y44" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/New OAWL Calculator v1.1.xlsx
+++ b/New OAWL Calculator v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Centura Physics\Physics Team\Anton\My Presentations\OAWL Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5AFAFD-01AA-4B6B-AF6A-D4CEF8A8DF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBA401-E921-4463-B0D8-A1D8F3C133E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="570" windowWidth="23865" windowHeight="16320" tabRatio="517" xr2:uid="{5D793858-2E08-460B-A8FF-38326940BF89}"/>
+    <workbookView xWindow="3765" yWindow="1140" windowWidth="23715" windowHeight="15750" tabRatio="517" xr2:uid="{5D793858-2E08-460B-A8FF-38326940BF89}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>Off-Axis Winston-Lutz</t>
   </si>
@@ -946,9 +946,6 @@
   </si>
   <si>
     <t>Note that the BEV coordinate system is separate from the TPS system, and is inherently right-handed with the third axis pointing towards the viewer.  The signs for the couch and collimator rotations will be ultimately determined by the BEV coordinate system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( Coord. System = BEV )</t>
   </si>
   <si>
     <t>( Coord. System = TPS )</t>
@@ -1312,7 +1309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
@@ -1734,53 +1730,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3189,7 +3185,7 @@
     </row>
     <row r="2" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3213,7 +3209,7 @@
     <row r="5" spans="1:69" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
         <v>84</v>
@@ -3221,78 +3217,78 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:69" s="70" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
       <c r="M8" s="72"/>
       <c r="O8" s="71"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="76"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="76"/>
-      <c r="AX8" s="76"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="76"/>
-      <c r="BB8" s="76"/>
-      <c r="BC8" s="76"/>
-      <c r="BD8" s="76"/>
-      <c r="BE8" s="76"/>
-      <c r="BF8" s="76"/>
-      <c r="BG8" s="76"/>
-      <c r="BH8" s="76"/>
-      <c r="BI8" s="76"/>
-      <c r="BJ8" s="76"/>
-      <c r="BK8" s="76"/>
-      <c r="BL8" s="76"/>
-      <c r="BM8" s="76"/>
-      <c r="BN8" s="76"/>
-      <c r="BO8" s="76"/>
-      <c r="BP8" s="76"/>
-      <c r="BQ8" s="76"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="75"/>
+      <c r="BG8" s="75"/>
+      <c r="BH8" s="75"/>
+      <c r="BI8" s="75"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="75"/>
+      <c r="BL8" s="75"/>
+      <c r="BM8" s="75"/>
+      <c r="BN8" s="75"/>
+      <c r="BO8" s="75"/>
+      <c r="BP8" s="75"/>
+      <c r="BQ8" s="75"/>
     </row>
     <row r="9" spans="1:69" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:69" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3300,8 +3296,8 @@
         <v>76</v>
       </c>
       <c r="D10" s="64"/>
-      <c r="E10" s="75" t="s">
-        <v>86</v>
+      <c r="E10" s="90" t="s">
+        <v>87</v>
       </c>
       <c r="F10" s="73"/>
       <c r="G10" s="67" t="s">
@@ -3316,77 +3312,77 @@
       <c r="L10" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="77" cm="1">
+      <c r="P10" s="76" cm="1">
         <f t="array" ref="P10">INDEX($V$11:$V$12, MATCH(K10,$U$11:$U$12,0), 0)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78" t="s">
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="78"/>
-      <c r="BE10" s="78"/>
-      <c r="BF10" s="78"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="78"/>
-      <c r="BI10" s="78"/>
-      <c r="BJ10" s="78"/>
-      <c r="BK10" s="78"/>
-      <c r="BL10" s="78"/>
-      <c r="BM10" s="78"/>
-      <c r="BN10" s="78"/>
-      <c r="BO10" s="78"/>
-      <c r="BP10" s="78"/>
-      <c r="BQ10" s="78"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="77"/>
+      <c r="BK10" s="77"/>
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="77"/>
+      <c r="BN10" s="77"/>
+      <c r="BO10" s="77"/>
+      <c r="BP10" s="77"/>
+      <c r="BQ10" s="77"/>
     </row>
     <row r="11" spans="1:69" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="63" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="64"/>
-      <c r="E11" s="75" t="s">
-        <v>87</v>
+      <c r="E11" s="90" t="s">
+        <v>86</v>
       </c>
       <c r="F11" s="73"/>
       <c r="G11" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
@@ -3397,75 +3393,75 @@
       <c r="L11" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="77" cm="1">
+      <c r="P11" s="76" cm="1">
         <f t="array" ref="P11">INDEX($V$11:$V$12, MATCH(K11,$U$11:$U$12,0), 0)</f>
         <v>-1</v>
       </c>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78" t="s">
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="V11" s="78">
+      <c r="V11" s="77">
         <v>1</v>
       </c>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78"/>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="78"/>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="78"/>
-      <c r="BE11" s="78"/>
-      <c r="BF11" s="78"/>
-      <c r="BG11" s="78"/>
-      <c r="BH11" s="78"/>
-      <c r="BI11" s="78"/>
-      <c r="BJ11" s="78"/>
-      <c r="BK11" s="78"/>
-      <c r="BL11" s="78"/>
-      <c r="BM11" s="78"/>
-      <c r="BN11" s="78"/>
-      <c r="BO11" s="78"/>
-      <c r="BP11" s="78"/>
-      <c r="BQ11" s="78"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="77"/>
+      <c r="BJ11" s="77"/>
+      <c r="BK11" s="77"/>
+      <c r="BL11" s="77"/>
+      <c r="BM11" s="77"/>
+      <c r="BN11" s="77"/>
+      <c r="BO11" s="77"/>
+      <c r="BP11" s="77"/>
+      <c r="BQ11" s="77"/>
     </row>
     <row r="12" spans="1:69" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="63" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="64"/>
-      <c r="E12" s="75" t="s">
-        <v>88</v>
+      <c r="E12" s="90" t="s">
+        <v>87</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="67" t="s">
@@ -3480,67 +3476,67 @@
       <c r="L12" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="77" cm="1">
+      <c r="P12" s="76" cm="1">
         <f t="array" ref="P12">INDEX($V$11:$V$12, MATCH(K12,$U$11:$U$12,0), 0)</f>
         <v>-1</v>
       </c>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78" t="s">
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="V12" s="78">
+      <c r="V12" s="77">
         <v>-1</v>
       </c>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="78"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="78"/>
-      <c r="BI12" s="78"/>
-      <c r="BJ12" s="78"/>
-      <c r="BK12" s="78"/>
-      <c r="BL12" s="78"/>
-      <c r="BM12" s="78"/>
-      <c r="BN12" s="78"/>
-      <c r="BO12" s="78"/>
-      <c r="BP12" s="78"/>
-      <c r="BQ12" s="78"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="77"/>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="77"/>
+      <c r="BH12" s="77"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="77"/>
+      <c r="BK12" s="77"/>
+      <c r="BL12" s="77"/>
+      <c r="BM12" s="77"/>
+      <c r="BN12" s="77"/>
+      <c r="BO12" s="77"/>
+      <c r="BP12" s="77"/>
+      <c r="BQ12" s="77"/>
     </row>
     <row r="14" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
@@ -3563,30 +3559,30 @@
     <row r="16" spans="1:69" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
     </row>
     <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
       <c r="H19" s="17" t="s">
         <v>7</v>
       </c>
@@ -3657,11 +3653,11 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="90" t="s">
+      <c r="H23" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -3745,32 +3741,32 @@
       <c r="C29" s="20"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
     </row>
     <row r="32" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
@@ -3817,7 +3813,7 @@
     <row r="37" spans="2:33" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C38" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:33" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3841,7 +3837,7 @@
     <row r="42" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B43" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="49"/>
       <c r="D43" s="50"/>
@@ -3934,14 +3930,14 @@
         <f t="array" ref="I45">IF(OR(G40&lt;-INDEX(W43:W44,F45), G40&gt;INDEX(W43:W44,F45)), INDEX(X43:X44,F45), INDEX($V$43:$V$44,F45))</f>
         <v>0.5</v>
       </c>
-      <c r="J45" s="81" t="str" cm="1">
+      <c r="J45" s="80" t="str" cm="1">
         <f t="array" ref="J45">IF(OR(G40&lt;-INDEX(W43:W44,F45), G40&gt;INDEX(W43:W44,F45)), "Note: The calculated field falls beyond small MLC leaves, so larger leaf gap size is used.", "")</f>
         <v/>
       </c>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
       <c r="AA45" s="61">
         <v>-18</v>
       </c>
@@ -3963,11 +3959,11 @@
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
       <c r="AA46" s="61">
         <v>-17</v>
       </c>
@@ -4014,7 +4010,7 @@
         <v>63</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="55">
         <f>FLOOR($G$40/$I$45, 1) * $I$45</f>
@@ -4024,12 +4020,12 @@
       <c r="G48" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J48" s="82">
+      <c r="J48" s="81">
         <f>Details!T44</f>
         <v>1.5513466609989948</v>
       </c>
-      <c r="K48" s="83"/>
-      <c r="L48" s="84"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="83"/>
       <c r="AA48" s="61">
         <v>-15</v>
       </c>
@@ -4090,12 +4086,12 @@
       <c r="G50" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J50" s="85">
+      <c r="J50" s="84">
         <f>Details!T37</f>
         <v>5.8728446862777899</v>
       </c>
-      <c r="K50" s="86"/>
-      <c r="L50" s="87"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="86"/>
       <c r="AA50" s="61">
         <v>-13</v>
       </c>
@@ -4184,7 +4180,7 @@
         <v>64</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54" s="55">
         <f>FLOOR($G$40/$I$45, 1) * $I$45 + I45</f>
@@ -4193,12 +4189,12 @@
       <c r="G54" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J54" s="82">
+      <c r="J54" s="81">
         <f>Details!X44</f>
         <v>356.55581860206962</v>
       </c>
-      <c r="K54" s="83"/>
-      <c r="L54" s="84"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="83"/>
       <c r="AA54" s="61">
         <v>-9.5</v>
       </c>
@@ -4258,12 +4254,12 @@
       <c r="G56" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J56" s="85">
+      <c r="J56" s="84">
         <f>Details!X37</f>
         <v>5.5893027033021987</v>
       </c>
-      <c r="K56" s="86"/>
-      <c r="L56" s="87"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="86"/>
       <c r="AA56" s="61">
         <v>-8.5</v>
       </c>
@@ -5283,7 +5279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DA5A9-3C21-4878-AD4A-1D035894EDEC}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5666,14 +5664,14 @@
         <v>55</v>
       </c>
       <c r="S34" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T34" s="45">
         <f>Main!E48</f>
         <v>3</v>
       </c>
       <c r="W34" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X34" s="45">
         <f>Main!E54</f>
@@ -5707,14 +5705,14 @@
         <v>58</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T37" s="45">
         <f>SIGN(Q29) * SQRT(T36^2 - T40^2)</f>
         <v>5.8728446862777899</v>
       </c>
       <c r="W37" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X37" s="45">
         <f>SIGN(Q29) * SQRT(X36^2 - X40^2)</f>
@@ -5734,14 +5732,14 @@
         <v>57</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T40" s="45">
         <f>T34</f>
         <v>3</v>
       </c>
       <c r="W40" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X40" s="45">
         <f>X34</f>
@@ -5757,14 +5755,14 @@
         <v>59</v>
       </c>
       <c r="S42" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T42" s="45">
         <f>DEGREES( ATAN(T40/T37) ) - DEGREES( ATAN(Q30/Q29) )</f>
         <v>-1.5513466609989948</v>
       </c>
       <c r="W42" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X42" s="45">
         <f>DEGREES( ATAN(X40/X37) ) - DEGREES( ATAN(Q30/Q29) )</f>
@@ -5780,7 +5778,7 @@
         <v>60</v>
       </c>
       <c r="S44" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T44" s="1">
         <f>IF(P10 - T42&lt;0, P10 - T42 + 360, P10 - T42)</f>
@@ -5790,7 +5788,7 @@
         <v>62</v>
       </c>
       <c r="W44" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X44" s="1">
         <f>IF(P10 - X42&lt;0, P10 - X42 + 360, P10 - X42)</f>
